--- a/NRI_STLF_Data/WeatherData/T_sari/T_sari93.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_sari/T_sari93.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="5">
   <si>
     <t>Rain</t>
   </si>
@@ -37,11 +37,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -372,13 +372,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="F363" sqref="F363:AA365"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>93</v>
       </c>
@@ -455,7 +455,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>93</v>
       </c>
@@ -535,7 +535,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>93</v>
       </c>
@@ -612,7 +612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>93</v>
       </c>
@@ -689,7 +689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>93</v>
       </c>
@@ -754,7 +754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>93</v>
       </c>
@@ -819,7 +819,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>93</v>
       </c>
@@ -893,7 +893,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>93</v>
       </c>
@@ -973,7 +973,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>93</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>93</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>93</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>93</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>93</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>93</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>93</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>93</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>93</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>93</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>93</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>93</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>93</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>93</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>93</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>93</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>93</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>93</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>93</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>93</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>93</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>93</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>93</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>93</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>93</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>93</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>93</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>93</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>93</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>93</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>93</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>93</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>93</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>93</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>93</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>93</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>93</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>93</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>93</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>93</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>93</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>93</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>93</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>93</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>93</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>93</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>93</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>93</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>93</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>93</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>93</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>93</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>93</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>93</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>93</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>93</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>93</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>93</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>93</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>93</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>93</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>93</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>93</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>93</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>93</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>93</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>93</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>93</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>93</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>93</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>93</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>93</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>93</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>93</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>93</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>93</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>93</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>93</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>93</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>93</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>93</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>93</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>93</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>93</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>93</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>93</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>93</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>93</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>93</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>93</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>93</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>93</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>93</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>93</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>93</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>93</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>93</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>93</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>93</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>93</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>93</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>93</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>93</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>93</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>93</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>93</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>93</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>93</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>93</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>93</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>93</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>93</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>93</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>93</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>93</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>93</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>93</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>93</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>93</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>93</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>93</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>93</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>93</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>93</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>93</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>93</v>
       </c>
@@ -11129,7 +11129,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>93</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>93</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>93</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>93</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>93</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>93</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>93</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>93</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>93</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>93</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>93</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>93</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>93</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>93</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>93</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>93</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>93</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>93</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>93</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>93</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>93</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>93</v>
       </c>
@@ -12811,7 +12811,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>93</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>93</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>93</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>93</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>93</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>93</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>93</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>93</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>93</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>93</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>93</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>93</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>93</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>93</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>93</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>93</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>93</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>93</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>93</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>93</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>93</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>93</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>93</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>93</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>93</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>93</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>93</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>93</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>93</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>93</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>93</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>93</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>93</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>93</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>93</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>93</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>93</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>93</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>93</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>93</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>93</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>93</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>93</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>93</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>93</v>
       </c>
@@ -16285,7 +16285,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>93</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>93</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>93</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>93</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>93</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>93</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>93</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>93</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>93</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>93</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>93</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>93</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>93</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>93</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>93</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>93</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>93</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>93</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>93</v>
       </c>
@@ -17739,7 +17739,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>93</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>93</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>93</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>93</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>93</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>93</v>
       </c>
@@ -18186,7 +18186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>93</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>93</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>93</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>93</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>93</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>93</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>93</v>
       </c>
@@ -18710,7 +18710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>93</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>93</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>93</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>93</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>93</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>93</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>93</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>93</v>
       </c>
@@ -19338,7 +19338,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>93</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>93</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>93</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>93</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>93</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>93</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>93</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>93</v>
       </c>
@@ -19951,7 +19951,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>93</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>93</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>93</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>93</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>93</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>93</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>93</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>93</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>93</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>93</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>93</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>93</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>93</v>
       </c>
@@ -20931,7 +20931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>93</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>93</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>93</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>93</v>
       </c>
@@ -21248,7 +21248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>93</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="273" spans="1:27">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>93</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:27">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>93</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="275" spans="1:27">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>93</v>
       </c>
@@ -21544,7 +21544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:27">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>93</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>93</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="278" spans="1:27">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>93</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="279" spans="1:27">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>93</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="280" spans="1:27">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>93</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="281" spans="1:27">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>93</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:27">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>93</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="283" spans="1:27">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>93</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="284" spans="1:27">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>93</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>93</v>
       </c>
@@ -22296,7 +22296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="286" spans="1:27">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>93</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="287" spans="1:27">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>93</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="288" spans="1:27">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>93</v>
       </c>
@@ -22530,7 +22530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>93</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>93</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>93</v>
       </c>
@@ -22752,7 +22752,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>93</v>
       </c>
@@ -22832,7 +22832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:27">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>93</v>
       </c>
@@ -22909,7 +22909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" spans="1:27">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>93</v>
       </c>
@@ -22986,7 +22986,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>93</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="296" spans="1:27">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>93</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="297" spans="1:27">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>93</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="298" spans="1:27">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>93</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="299" spans="1:27">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>93</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:27">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>93</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="301" spans="1:27">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>93</v>
       </c>
@@ -23513,7 +23513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>93</v>
       </c>
@@ -23593,7 +23593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="303" spans="1:27">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>93</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="304" spans="1:27">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>93</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>93</v>
       </c>
@@ -23812,7 +23812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>93</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>93</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>93</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>93</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>93</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>93</v>
       </c>
@@ -24280,7 +24280,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>93</v>
       </c>
@@ -24357,7 +24357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>93</v>
       </c>
@@ -24434,7 +24434,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>93</v>
       </c>
@@ -24511,7 +24511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>93</v>
       </c>
@@ -24591,7 +24591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>93</v>
       </c>
@@ -24668,7 +24668,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>93</v>
       </c>
@@ -24733,7 +24733,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>93</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>93</v>
       </c>
@@ -24875,7 +24875,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>93</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>93</v>
       </c>
@@ -25032,7 +25032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>93</v>
       </c>
@@ -25097,7 +25097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>93</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>93</v>
       </c>
@@ -25257,7 +25257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>93</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>93</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>93</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>93</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>93</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>93</v>
       </c>
@@ -25728,7 +25728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>93</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>93</v>
       </c>
@@ -25882,7 +25882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>93</v>
       </c>
@@ -25959,7 +25959,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>93</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>93</v>
       </c>
@@ -26113,7 +26113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>93</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>93</v>
       </c>
@@ -26273,7 +26273,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>93</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>93</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>93</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>93</v>
       </c>
@@ -26590,7 +26590,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>93</v>
       </c>
@@ -26667,7 +26667,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>93</v>
       </c>
@@ -26732,7 +26732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>93</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>93</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>93</v>
       </c>
@@ -26963,7 +26963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>93</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>93</v>
       </c>
@@ -27120,7 +27120,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>93</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>93</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>93</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>93</v>
       </c>
@@ -27425,7 +27425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>93</v>
       </c>
@@ -27505,7 +27505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>93</v>
       </c>
@@ -27570,7 +27570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="355" spans="1:27">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>93</v>
       </c>
@@ -27635,7 +27635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="356" spans="1:27">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>93</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="357" spans="1:27">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>93</v>
       </c>
@@ -27780,7 +27780,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="358" spans="1:27">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>93</v>
       </c>
@@ -27857,7 +27857,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="359" spans="1:27">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>93</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="360" spans="1:27">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>93</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>93</v>
       </c>
@@ -28094,7 +28094,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="362" spans="1:27">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>93</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="363" spans="1:27">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>93</v>
       </c>
@@ -28197,61 +28197,61 @@
         <v>10</v>
       </c>
       <c r="H363">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I363">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J363">
         <v>9</v>
       </c>
       <c r="K363">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L363">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M363">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N363">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O363">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="P363">
+        <v>1027</v>
+      </c>
+      <c r="Q363">
         <v>1016</v>
       </c>
-      <c r="Q363">
-        <v>1011</v>
-      </c>
       <c r="R363">
         <v>10</v>
       </c>
       <c r="S363">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T363">
         <v>1</v>
       </c>
       <c r="U363">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V363">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X363">
         <v>0</v>
       </c>
       <c r="Y363">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA363">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="364" spans="1:27">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>93</v>
       </c>
@@ -28267,8 +28267,71 @@
       <c r="E364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:27">
+      <c r="F364">
+        <v>11</v>
+      </c>
+      <c r="G364">
+        <v>9</v>
+      </c>
+      <c r="H364">
+        <v>8</v>
+      </c>
+      <c r="I364">
+        <v>9</v>
+      </c>
+      <c r="J364">
+        <v>8</v>
+      </c>
+      <c r="K364">
+        <v>8</v>
+      </c>
+      <c r="L364">
+        <v>100</v>
+      </c>
+      <c r="M364">
+        <v>94</v>
+      </c>
+      <c r="N364">
+        <v>82</v>
+      </c>
+      <c r="O364">
+        <v>1027</v>
+      </c>
+      <c r="P364">
+        <v>1025</v>
+      </c>
+      <c r="Q364">
+        <v>1024</v>
+      </c>
+      <c r="R364">
+        <v>10</v>
+      </c>
+      <c r="S364">
+        <v>6</v>
+      </c>
+      <c r="T364">
+        <v>1</v>
+      </c>
+      <c r="U364">
+        <v>11</v>
+      </c>
+      <c r="V364">
+        <v>10</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>7</v>
+      </c>
+      <c r="Z364" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>93</v>
       </c>
@@ -28283,6 +28346,66 @@
       </c>
       <c r="E365">
         <v>2</v>
+      </c>
+      <c r="F365">
+        <v>11</v>
+      </c>
+      <c r="G365">
+        <v>10</v>
+      </c>
+      <c r="H365">
+        <v>8</v>
+      </c>
+      <c r="I365">
+        <v>10</v>
+      </c>
+      <c r="J365">
+        <v>9</v>
+      </c>
+      <c r="K365">
+        <v>7</v>
+      </c>
+      <c r="L365">
+        <v>94</v>
+      </c>
+      <c r="M365">
+        <v>92</v>
+      </c>
+      <c r="N365">
+        <v>88</v>
+      </c>
+      <c r="O365">
+        <v>1023</v>
+      </c>
+      <c r="P365">
+        <v>1016</v>
+      </c>
+      <c r="Q365">
+        <v>1011</v>
+      </c>
+      <c r="R365">
+        <v>10</v>
+      </c>
+      <c r="S365">
+        <v>8</v>
+      </c>
+      <c r="T365">
+        <v>1</v>
+      </c>
+      <c r="U365">
+        <v>19</v>
+      </c>
+      <c r="V365">
+        <v>5</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>7</v>
+      </c>
+      <c r="AA365">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -28296,7 +28419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28308,7 +28431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
